--- a/data/template.xlsx
+++ b/data/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emeryr/code/GIT/openn-genizah/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAFEC96-7AFF-8A4A-8B7C-9E2A23FD51E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C3EBB9-AD74-9844-BF03-1F81794C5059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="4640" windowWidth="24580" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -541,10 +541,10 @@
     <t>Scribe URI</t>
   </si>
   <si>
-    <t>Dot Porter</t>
-  </si>
-  <si>
-    <t>dorp@upenn.edu</t>
+    <t>Emily Esten</t>
+  </si>
+  <si>
+    <t>estene@upenn.edu</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2291,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
